--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf9-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Gdf9</t>
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H2">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J2">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>21.60444509288533</v>
+        <v>16.94575500065544</v>
       </c>
       <c r="R2">
-        <v>194.440005835968</v>
+        <v>152.511795005899</v>
       </c>
       <c r="S2">
-        <v>0.05004205234768009</v>
+        <v>0.03701033513562752</v>
       </c>
       <c r="T2">
-        <v>0.05004205234768009</v>
+        <v>0.03701033513562754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H3">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J3">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>48.93117180930622</v>
+        <v>49.90373025536744</v>
       </c>
       <c r="R3">
-        <v>440.380546283756</v>
+        <v>449.1335722983069</v>
       </c>
       <c r="S3">
-        <v>0.1133385398508104</v>
+        <v>0.1089921211062986</v>
       </c>
       <c r="T3">
-        <v>0.1133385398508104</v>
+        <v>0.1089921211062987</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H4">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J4">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>7.997569748972</v>
+        <v>10.47424222563322</v>
       </c>
       <c r="R4">
-        <v>71.97812774074799</v>
+        <v>94.26818003069899</v>
       </c>
       <c r="S4">
-        <v>0.01852465093695354</v>
+        <v>0.02287624334515828</v>
       </c>
       <c r="T4">
-        <v>0.01852465093695354</v>
+        <v>0.02287624334515828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H5">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J5">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>11.65851570900222</v>
+        <v>15.98063244284722</v>
       </c>
       <c r="R5">
-        <v>104.92664138102</v>
+        <v>143.825691985625</v>
       </c>
       <c r="S5">
-        <v>0.02700444519161788</v>
+        <v>0.0349024615525352</v>
       </c>
       <c r="T5">
-        <v>0.02700444519161788</v>
+        <v>0.03490246155253521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.581182666666667</v>
+        <v>1.612610333333333</v>
       </c>
       <c r="H6">
-        <v>4.743548</v>
+        <v>4.837831</v>
       </c>
       <c r="I6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="J6">
-        <v>0.2313516192010878</v>
+        <v>0.2199512280440611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>9.688760564367556</v>
+        <v>7.403715505485777</v>
       </c>
       <c r="R6">
-        <v>87.198845079308</v>
+        <v>66.633439549372</v>
       </c>
       <c r="S6">
-        <v>0.02244193087402585</v>
+        <v>0.01617006690444138</v>
       </c>
       <c r="T6">
-        <v>0.02244193087402585</v>
+        <v>0.01617006690444138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>13.129937</v>
       </c>
       <c r="I7">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J7">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>59.80017552042133</v>
+        <v>45.99100207841922</v>
       </c>
       <c r="R7">
-        <v>538.2015796837919</v>
+        <v>413.919018705773</v>
       </c>
       <c r="S7">
-        <v>0.1385142502354233</v>
+        <v>0.1004465366152054</v>
       </c>
       <c r="T7">
-        <v>0.1385142502354233</v>
+        <v>0.1004465366152054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>13.129937</v>
       </c>
       <c r="I8">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J8">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>135.4393806476432</v>
@@ -948,10 +948,10 @@
         <v>1218.954425828789</v>
       </c>
       <c r="S8">
-        <v>0.313716207343771</v>
+        <v>0.2958060510220534</v>
       </c>
       <c r="T8">
-        <v>0.3137162073437711</v>
+        <v>0.2958060510220534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>13.129937</v>
       </c>
       <c r="I9">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J9">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>22.136929352693</v>
+        <v>28.42723124170811</v>
       </c>
       <c r="R9">
-        <v>199.232364174237</v>
+        <v>255.845081175373</v>
       </c>
       <c r="S9">
-        <v>0.05127543765746461</v>
+        <v>0.06208642549080309</v>
       </c>
       <c r="T9">
-        <v>0.05127543765746461</v>
+        <v>0.06208642549080311</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>13.129937</v>
       </c>
       <c r="I10">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J10">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>32.27027043316722</v>
+        <v>43.37164675548611</v>
       </c>
       <c r="R10">
-        <v>290.4324338985049</v>
+        <v>390.344820799375</v>
       </c>
       <c r="S10">
-        <v>0.07474714371729678</v>
+        <v>0.09472573997101374</v>
       </c>
       <c r="T10">
-        <v>0.07474714371729678</v>
+        <v>0.09472573997101376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,10 +1104,10 @@
         <v>13.129937</v>
       </c>
       <c r="I11">
-        <v>0.6403713391238527</v>
+        <v>0.5969505274762915</v>
       </c>
       <c r="J11">
-        <v>0.6403713391238528</v>
+        <v>0.5969505274762916</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>26.81807284720855</v>
+        <v>20.09378131500489</v>
       </c>
       <c r="R11">
-        <v>241.362655624877</v>
+        <v>180.844031835044</v>
       </c>
       <c r="S11">
-        <v>0.06211830016989697</v>
+        <v>0.04388577437721581</v>
       </c>
       <c r="T11">
-        <v>0.06211830016989697</v>
+        <v>0.04388577437721582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H12">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J12">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>5.202576470570667</v>
+        <v>1.525461955998555</v>
       </c>
       <c r="R12">
-        <v>46.82318823513599</v>
+        <v>13.729157603987</v>
       </c>
       <c r="S12">
-        <v>0.0120506498993044</v>
+        <v>0.003331681487544975</v>
       </c>
       <c r="T12">
-        <v>0.0120506498993044</v>
+        <v>0.003331681487544976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H13">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J13">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>11.78313824021244</v>
+        <v>4.492348789654556</v>
       </c>
       <c r="R13">
-        <v>106.048244161912</v>
+        <v>40.431139106891</v>
       </c>
       <c r="S13">
-        <v>0.02729310649273948</v>
+        <v>0.009811503485375239</v>
       </c>
       <c r="T13">
-        <v>0.02729310649273948</v>
+        <v>0.009811503485375241</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H14">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J14">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>1.925898490744</v>
+        <v>0.9428944318207778</v>
       </c>
       <c r="R14">
-        <v>17.333086416696</v>
+        <v>8.486049886386999</v>
       </c>
       <c r="S14">
-        <v>0.004460929807536106</v>
+        <v>0.002059326298406551</v>
       </c>
       <c r="T14">
-        <v>0.004460929807536105</v>
+        <v>0.002059326298406552</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H15">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J15">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>2.807492590004444</v>
+        <v>1.438581333402778</v>
       </c>
       <c r="R15">
-        <v>25.26743331004</v>
+        <v>12.947232000625</v>
       </c>
       <c r="S15">
-        <v>0.006502953005767906</v>
+        <v>0.00314193007434814</v>
       </c>
       <c r="T15">
-        <v>0.006502953005767905</v>
+        <v>0.003141930074348141</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3807653333333333</v>
+        <v>0.1451676666666667</v>
       </c>
       <c r="H16">
-        <v>1.142296</v>
+        <v>0.435503</v>
       </c>
       <c r="I16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="J16">
-        <v>0.05571189101637125</v>
+        <v>0.01980007562622025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>2.333154937535111</v>
+        <v>0.6664846940262222</v>
       </c>
       <c r="R16">
-        <v>20.998394437816</v>
+        <v>5.998362246236</v>
       </c>
       <c r="S16">
-        <v>0.005404251811023361</v>
+        <v>0.001455634280545338</v>
       </c>
       <c r="T16">
-        <v>0.00540425181102336</v>
+        <v>0.001455634280545338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H17">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I17">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J17">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N17">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q17">
-        <v>6.776394383909333</v>
+        <v>6.636610503838778</v>
       </c>
       <c r="R17">
-        <v>60.98754945518399</v>
+        <v>59.729494534549</v>
       </c>
       <c r="S17">
-        <v>0.015696060742601</v>
+        <v>0.01449467308492295</v>
       </c>
       <c r="T17">
-        <v>0.015696060742601</v>
+        <v>0.01449467308492296</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H18">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I18">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J18">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q18">
-        <v>15.34762482540589</v>
+        <v>19.54422333975078</v>
       </c>
       <c r="R18">
-        <v>138.128623428653</v>
+        <v>175.898010057757</v>
       </c>
       <c r="S18">
-        <v>0.03554947334326299</v>
+        <v>0.04268551361339473</v>
       </c>
       <c r="T18">
-        <v>0.03554947334326299</v>
+        <v>0.04268551361339474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H19">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I19">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J19">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N19">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O19">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P19">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q19">
-        <v>2.508497047661</v>
+        <v>4.102116782149889</v>
       </c>
       <c r="R19">
-        <v>22.576473428949</v>
+        <v>36.919051039349</v>
       </c>
       <c r="S19">
-        <v>0.005810394112570462</v>
+        <v>0.008959218215238986</v>
       </c>
       <c r="T19">
-        <v>0.005810394112570462</v>
+        <v>0.008959218215238986</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H20">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I20">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J20">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N20">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q20">
-        <v>3.656779891153888</v>
+        <v>6.258631328263889</v>
       </c>
       <c r="R20">
-        <v>32.911019020385</v>
+        <v>56.327681954375</v>
       </c>
       <c r="S20">
-        <v>0.008470144451769744</v>
+        <v>0.01366914858266421</v>
       </c>
       <c r="T20">
-        <v>0.008470144451769746</v>
+        <v>0.01366914858266421</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4959496666666667</v>
+        <v>0.6315603333333334</v>
       </c>
       <c r="H21">
-        <v>1.487849</v>
+        <v>1.894681</v>
       </c>
       <c r="I21">
-        <v>0.07256515065868824</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="J21">
-        <v>0.07256515065868825</v>
+        <v>0.08614137465772362</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N21">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O21">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P21">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q21">
-        <v>3.038951585803222</v>
+        <v>2.899580224619111</v>
       </c>
       <c r="R21">
-        <v>27.350564272229</v>
+        <v>26.096222021572</v>
       </c>
       <c r="S21">
-        <v>0.007039078008484049</v>
+        <v>0.006332821161502728</v>
       </c>
       <c r="T21">
-        <v>0.007039078008484049</v>
+        <v>0.006332821161502728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H22">
+        <v>1.697065</v>
+      </c>
+      <c r="I22">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J22">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.50827633333333</v>
+      </c>
+      <c r="N22">
+        <v>31.524829</v>
+      </c>
+      <c r="O22">
+        <v>0.1682660991018133</v>
+      </c>
+      <c r="P22">
+        <v>0.1682660991018134</v>
+      </c>
+      <c r="Q22">
+        <v>5.944409325209443</v>
+      </c>
+      <c r="R22">
+        <v>53.499683926885</v>
+      </c>
+      <c r="S22">
+        <v>0.01298287277851246</v>
+      </c>
+      <c r="T22">
+        <v>0.01298287277851247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H23">
+        <v>1.697065</v>
+      </c>
+      <c r="I23">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J23">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N23">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O23">
+        <v>0.4955285863849104</v>
+      </c>
+      <c r="P23">
+        <v>0.4955285863849105</v>
+      </c>
+      <c r="Q23">
+        <v>17.50575288508944</v>
+      </c>
+      <c r="R23">
+        <v>157.551775965805</v>
+      </c>
+      <c r="S23">
+        <v>0.03823339715778842</v>
+      </c>
+      <c r="T23">
+        <v>0.03823339715778842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H24">
+        <v>1.697065</v>
+      </c>
+      <c r="I24">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J24">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.495209666666667</v>
+      </c>
+      <c r="N24">
+        <v>19.485629</v>
+      </c>
+      <c r="O24">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="P24">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="Q24">
+        <v>3.674264330987222</v>
+      </c>
+      <c r="R24">
+        <v>33.06837897888499</v>
+      </c>
+      <c r="S24">
+        <v>0.008024768106316865</v>
+      </c>
+      <c r="T24">
+        <v>0.008024768106316867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H25">
+        <v>1.697065</v>
+      </c>
+      <c r="I25">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J25">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.909791666666667</v>
+      </c>
+      <c r="N25">
+        <v>29.729375</v>
+      </c>
+      <c r="O25">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="P25">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="Q25">
+        <v>5.605853531597221</v>
+      </c>
+      <c r="R25">
+        <v>50.452681784375</v>
+      </c>
+      <c r="S25">
+        <v>0.01224345081807387</v>
+      </c>
+      <c r="T25">
+        <v>0.01224345081807388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.5656883333333332</v>
+      </c>
+      <c r="H26">
+        <v>1.697065</v>
+      </c>
+      <c r="I26">
+        <v>0.0771567941957035</v>
+      </c>
+      <c r="J26">
+        <v>0.07715679419570351</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.591137333333333</v>
+      </c>
+      <c r="N26">
+        <v>13.773412</v>
+      </c>
+      <c r="O26">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="P26">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="Q26">
+        <v>2.597152826197777</v>
+      </c>
+      <c r="R26">
+        <v>23.37437543578</v>
+      </c>
+      <c r="S26">
+        <v>0.00567230533501187</v>
+      </c>
+      <c r="T26">
+        <v>0.005672305335011871</v>
       </c>
     </row>
   </sheetData>
